--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P02_trail1 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P02_trail1 Features.xlsx
@@ -4477,7 +4477,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.367388849560274</v>
+        <v>1.376990501800489</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.131872187736412</v>
@@ -4566,7 +4566,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.399204200960911</v>
+        <v>1.410568542015625</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.001349326929972</v>
@@ -4655,7 +4655,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.433232162018521</v>
+        <v>1.439350809289466</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.06948311943345</v>
@@ -4744,7 +4744,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.460730179782351</v>
+        <v>1.461646153244493</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.16470183437723</v>
@@ -4833,7 +4833,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.462118296902543</v>
+        <v>1.469926706666445</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.230090924327737</v>
@@ -4922,7 +4922,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.477520803272494</v>
+        <v>1.48461925666237</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.178633950688789</v>
@@ -5011,7 +5011,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.48961567072316</v>
+        <v>1.496472371098831</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.114296880359537</v>
@@ -5100,7 +5100,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.471096897935327</v>
+        <v>1.481376959394047</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.221391664244984</v>
@@ -5189,7 +5189,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.469830478786589</v>
+        <v>1.478015009685245</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.140955632555499</v>
@@ -5278,7 +5278,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.451628385338374</v>
+        <v>1.459932207647883</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.208186629618086</v>
@@ -5367,7 +5367,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.461711553788385</v>
+        <v>1.468213065481813</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.264617223623892</v>
@@ -5456,7 +5456,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.461912589486917</v>
+        <v>1.467926108421132</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.222935496955977</v>
@@ -5545,7 +5545,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.460527467172144</v>
+        <v>1.464186269718608</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.200550123996717</v>
@@ -5634,7 +5634,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.458002730893364</v>
+        <v>1.460189867175429</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.02487569412763</v>
@@ -5723,7 +5723,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.465039045946833</v>
+        <v>1.466498112904799</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.28576326996504</v>
@@ -5812,7 +5812,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.458540766278246</v>
+        <v>1.461326271631973</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.277320710679303</v>
@@ -5901,7 +5901,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.452584392012735</v>
+        <v>1.454075137767758</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.219768783380787</v>
@@ -5990,7 +5990,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.477044920106434</v>
+        <v>1.478684325558965</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.094877763713679</v>
@@ -6079,7 +6079,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.488733456760313</v>
+        <v>1.486245767430873</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.318853472225003</v>
@@ -6168,7 +6168,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.494306655821154</v>
+        <v>1.495338404785749</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.180567270150563</v>
@@ -6257,7 +6257,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.495846557604651</v>
+        <v>1.49854167929388</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.181570937076922</v>
@@ -6346,7 +6346,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.454617969988872</v>
+        <v>1.455970252283881</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.113480487653328</v>
@@ -6435,7 +6435,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.485653452992682</v>
+        <v>1.488872492762814</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.181644421962602</v>
@@ -6524,7 +6524,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.488982830348803</v>
+        <v>1.490103547701966</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.176426295208819</v>
@@ -6613,7 +6613,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.513535310931476</v>
+        <v>1.511988323792931</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.192620937314832</v>
@@ -6702,7 +6702,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.479787906486375</v>
+        <v>1.484488136352727</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.206285981755771</v>
@@ -6791,7 +6791,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.471068206773843</v>
+        <v>1.465576034663238</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.131467936659003</v>
@@ -6880,7 +6880,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.40073733384153</v>
+        <v>1.401791026036479</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.265573454891813</v>
@@ -6969,7 +6969,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.397468113357997</v>
+        <v>1.400022687925153</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.235212520940763</v>
@@ -7058,7 +7058,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.418925361712362</v>
+        <v>1.418729336704589</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.230132749186243</v>
@@ -7147,7 +7147,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.451233747153626</v>
+        <v>1.451554863206912</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.237481565140605</v>
@@ -7236,7 +7236,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.425952060500061</v>
+        <v>1.426526303629956</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.21661824650294</v>
@@ -7325,7 +7325,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.42640624362634</v>
+        <v>1.428347765122387</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.276281158427218</v>
@@ -7414,7 +7414,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.426200259208985</v>
+        <v>1.425909538939007</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.28174637201964</v>
@@ -7503,7 +7503,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.421148774035818</v>
+        <v>1.418841137405318</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.281364217929978</v>
@@ -7592,7 +7592,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.403751860730245</v>
+        <v>1.402004952279346</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.297695154477479</v>
@@ -7681,7 +7681,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.404215346639886</v>
+        <v>1.404309467381624</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.256843059158667</v>
@@ -7770,7 +7770,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.391162070816343</v>
+        <v>1.391446521549875</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.2414451236786</v>
@@ -7859,7 +7859,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.391781521810638</v>
+        <v>1.394130962402681</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.282824994267048</v>
@@ -7948,7 +7948,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.395276526371274</v>
+        <v>1.395183705312444</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.057076658369617</v>
@@ -8037,7 +8037,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.393592295712347</v>
+        <v>1.391674688054029</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.238949315743349</v>
@@ -8126,7 +8126,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.428672190111863</v>
+        <v>1.428224958557964</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.287221769362038</v>
@@ -8412,7 +8412,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.548314923961677</v>
+        <v>1.552060987710077</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.852465804786494</v>
@@ -8501,7 +8501,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.556256429681859</v>
+        <v>1.559522582825905</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.650085415789151</v>
@@ -8590,7 +8590,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.571992882426959</v>
+        <v>1.570308037301635</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.701314715214818</v>
@@ -8679,7 +8679,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.566848113431032</v>
+        <v>1.568597098963813</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.766524040024267</v>
@@ -8768,7 +8768,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.562410467542747</v>
+        <v>1.561770322673582</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.448937520548228</v>
@@ -8857,7 +8857,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.541862938589197</v>
+        <v>1.541913363940335</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.846944977104356</v>
@@ -8946,7 +8946,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.540945052865972</v>
+        <v>1.543154966931827</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.730645467385834</v>
@@ -9035,7 +9035,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.53131816541286</v>
+        <v>1.533208888736658</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.707017491504535</v>
@@ -9124,7 +9124,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.535187775989304</v>
+        <v>1.532187355000193</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.603663538213549</v>
@@ -9213,7 +9213,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.50330626716966</v>
+        <v>1.502642329998753</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.584114790938854</v>
@@ -9302,7 +9302,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.519333889219348</v>
+        <v>1.518737654050116</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.658366933120319</v>
@@ -9391,7 +9391,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.513687404900947</v>
+        <v>1.507970019413508</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.658869937972138</v>
@@ -9480,7 +9480,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.527976824252499</v>
+        <v>1.52116182892745</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.310137877720429</v>
@@ -9569,7 +9569,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.535164991245453</v>
+        <v>1.52573629703915</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.380052970710691</v>
@@ -9658,7 +9658,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.531112142201886</v>
+        <v>1.518524662158771</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.518839079382078</v>
@@ -9747,7 +9747,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.539109843085719</v>
+        <v>1.525153333269821</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.358866224043645</v>
@@ -9836,7 +9836,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.538085991298824</v>
+        <v>1.527694086788741</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.348314847911502</v>
@@ -9925,7 +9925,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.544243523422284</v>
+        <v>1.530765696211751</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.191877357077235</v>
@@ -10014,7 +10014,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.540248784716796</v>
+        <v>1.520193059691134</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.339936036482596</v>
@@ -10103,7 +10103,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.551400338235726</v>
+        <v>1.530930899989332</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.366792942115995</v>
@@ -10192,7 +10192,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.574367724704467</v>
+        <v>1.553803496643317</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.247932654747892</v>
@@ -10281,7 +10281,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.550114539537689</v>
+        <v>1.534025096570712</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.234684634744323</v>
@@ -10370,7 +10370,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.559310133079723</v>
+        <v>1.545054031563901</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.267435857629954</v>
@@ -10459,7 +10459,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.570654726492423</v>
+        <v>1.55466917540049</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.310230416482966</v>
@@ -10548,7 +10548,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.598408815068227</v>
+        <v>1.571137687522376</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.246197680473678</v>
@@ -10637,7 +10637,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.591967903395732</v>
+        <v>1.564553828302575</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.32067854833464</v>
@@ -10726,7 +10726,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.597019877415326</v>
+        <v>1.566932288580684</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.261883420941539</v>
@@ -10815,7 +10815,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.562778770639508</v>
+        <v>1.538587820574537</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.287233838953243</v>
@@ -10904,7 +10904,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.547164184723856</v>
+        <v>1.527682046599278</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.33289392723019</v>
@@ -10993,7 +10993,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.56663389892746</v>
+        <v>1.54700740901112</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.533772740578426</v>
@@ -11082,7 +11082,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.576789259145792</v>
+        <v>1.557874280542862</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.434475503967089</v>
@@ -11171,7 +11171,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.526536676916807</v>
+        <v>1.514018001916632</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.410731230084334</v>
@@ -11260,7 +11260,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.524950323359507</v>
+        <v>1.515420205688413</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.478986879326573</v>
@@ -11349,7 +11349,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.527005945710174</v>
+        <v>1.517695296920966</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.399202117261117</v>
@@ -11438,7 +11438,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.526655192449684</v>
+        <v>1.517325711169055</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.442002308248063</v>
@@ -11527,7 +11527,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.521738720482417</v>
+        <v>1.512788467989728</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.48802068339269</v>
@@ -11616,7 +11616,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.518762848866573</v>
+        <v>1.5091300106532</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.444638664057154</v>
@@ -11705,7 +11705,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.499522638609432</v>
+        <v>1.492038557586259</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.391592250696181</v>
@@ -11794,7 +11794,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.486605200840924</v>
+        <v>1.483561783981377</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.358260068392938</v>
@@ -11883,7 +11883,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.494180454052903</v>
+        <v>1.494701264476424</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.434052524240326</v>
@@ -11972,7 +11972,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.486612721459757</v>
+        <v>1.491884929110044</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.452779739113848</v>
@@ -12061,7 +12061,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.5240617668048</v>
+        <v>1.534972394876061</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.014842760303053</v>
@@ -12347,7 +12347,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.79292843679207</v>
+        <v>1.759871705949828</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>4.165487053970852</v>
@@ -12436,7 +12436,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.792276458757126</v>
+        <v>1.755336625289872</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>4.095503912399395</v>
@@ -12525,7 +12525,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.797224900032016</v>
+        <v>1.762441299180232</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>4.102121764386634</v>
@@ -12614,7 +12614,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.800520762619108</v>
+        <v>1.765983720666357</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.979115062935628</v>
@@ -12703,7 +12703,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.797109682584493</v>
+        <v>1.765769397203037</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.600237376842007</v>
@@ -12792,7 +12792,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.777432533279861</v>
+        <v>1.753856588928568</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.722879701262122</v>
@@ -12881,7 +12881,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.771199676522397</v>
+        <v>1.750919776609209</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.799865696351431</v>
@@ -12970,7 +12970,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.773609422451661</v>
+        <v>1.75335109662597</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.981249223734722</v>
@@ -13059,7 +13059,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.772268469888624</v>
+        <v>1.751208326515974</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.909421689690231</v>
@@ -13148,7 +13148,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.751618828806428</v>
+        <v>1.734085958597618</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.402104057478131</v>
@@ -13237,7 +13237,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.751583928713838</v>
+        <v>1.738140095925254</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.637719345177845</v>
@@ -13326,7 +13326,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.752984171743742</v>
+        <v>1.739670057862152</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.296230555562063</v>
@@ -13415,7 +13415,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.758140399305961</v>
+        <v>1.738697860127469</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.752008497391719</v>
@@ -13504,7 +13504,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.762630967372624</v>
+        <v>1.739517996369342</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.337147587481637</v>
@@ -13593,7 +13593,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.739756240379513</v>
+        <v>1.714686419756548</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.410128934103013</v>
@@ -13682,7 +13682,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.741570422653319</v>
+        <v>1.717841958487332</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.290468077077608</v>
@@ -13771,7 +13771,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.747232256197325</v>
+        <v>1.724692668374023</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.113252600806345</v>
@@ -13860,7 +13860,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.745568844129302</v>
+        <v>1.724230378349211</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.141814197223534</v>
@@ -13949,7 +13949,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.738308589699736</v>
+        <v>1.709975624299762</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.502158572223141</v>
@@ -14038,7 +14038,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.751309667898142</v>
+        <v>1.721351123320427</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.623497229733106</v>
@@ -14127,7 +14127,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.766566023308308</v>
+        <v>1.730774564606257</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.176864877593822</v>
@@ -14216,7 +14216,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.760000275320556</v>
+        <v>1.724455183161973</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.216178926222053</v>
@@ -14305,7 +14305,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.758476904627925</v>
+        <v>1.724152019802141</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.651563955329886</v>
@@ -14394,7 +14394,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.767555443336796</v>
+        <v>1.730321969792105</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.364659382141482</v>
@@ -14483,7 +14483,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.780087951148965</v>
+        <v>1.737812536761478</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.241416005817202</v>
@@ -14572,7 +14572,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.787751193238584</v>
+        <v>1.736878535701754</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.523873588539073</v>
@@ -14661,7 +14661,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.786630680779227</v>
+        <v>1.734755343096905</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.137380731514298</v>
@@ -14750,7 +14750,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.787272413288129</v>
+        <v>1.728710913677313</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.069697051082115</v>
@@ -14839,7 +14839,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.771491427688649</v>
+        <v>1.722725976206752</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.169608434095059</v>
@@ -14928,7 +14928,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.796811393165685</v>
+        <v>1.746652988775834</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.521083402182397</v>
@@ -15017,7 +15017,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.797815253807202</v>
+        <v>1.743541987336557</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.027322205597383</v>
@@ -15106,7 +15106,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.713593652877216</v>
+        <v>1.677207270673413</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.437481867317378</v>
@@ -15195,7 +15195,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.707394938099976</v>
+        <v>1.678360500654012</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.421620423862386</v>
@@ -15284,7 +15284,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.704369381089513</v>
+        <v>1.677830414020071</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.425680177578044</v>
@@ -15373,7 +15373,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.696348266394992</v>
+        <v>1.673257460090983</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.420505560600078</v>
@@ -15462,7 +15462,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.698296308296066</v>
+        <v>1.6745177746506</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.396465045711365</v>
@@ -15551,7 +15551,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.698186455893815</v>
+        <v>1.671314217675834</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.418371530176969</v>
@@ -15640,7 +15640,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.702230503186067</v>
+        <v>1.672609013260659</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.367775133463534</v>
@@ -15729,7 +15729,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.678800777802069</v>
+        <v>1.65457207574105</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.436904589789529</v>
@@ -15818,7 +15818,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.68165619587652</v>
+        <v>1.659344197973224</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.424531080267615</v>
@@ -15907,7 +15907,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.677111948410749</v>
+        <v>1.661067421665322</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.453555213879186</v>
@@ -15996,7 +15996,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.666942892662031</v>
+        <v>1.646808413723033</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.962794617322582</v>
@@ -16282,7 +16282,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.715671972771294</v>
+        <v>1.693573369846848</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.782639191592104</v>
@@ -16371,7 +16371,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.725955766550622</v>
+        <v>1.701783889607788</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.462156152022251</v>
@@ -16460,7 +16460,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.729556257774471</v>
+        <v>1.706394271779561</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.065933885159421</v>
@@ -16549,7 +16549,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.719103946944681</v>
+        <v>1.703869585577744</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.758473947614612</v>
@@ -16638,7 +16638,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.724780111079574</v>
+        <v>1.705919147070488</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.413665043704129</v>
@@ -16727,7 +16727,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.727771841483647</v>
+        <v>1.707732833510786</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.773300929259555</v>
@@ -16816,7 +16816,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.728848294789185</v>
+        <v>1.708105024734055</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>4.104722150198397</v>
@@ -16905,7 +16905,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.717454030977395</v>
+        <v>1.70478769236768</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.436715971549331</v>
@@ -16994,7 +16994,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.720158472426784</v>
+        <v>1.709772878785711</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.758120910437015</v>
@@ -17083,7 +17083,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.7121593707009</v>
+        <v>1.704531368873392</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.53306357679484</v>
@@ -17172,7 +17172,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.709140619640434</v>
+        <v>1.705994540624489</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.819338074290325</v>
@@ -17261,7 +17261,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.714116922511143</v>
+        <v>1.707747189778212</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.719784175833119</v>
@@ -17350,7 +17350,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.720328730322028</v>
+        <v>1.707724837298815</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.42158919019586</v>
@@ -17439,7 +17439,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.732109670350858</v>
+        <v>1.719888070732715</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.618382873507159</v>
@@ -17528,7 +17528,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.739298188280702</v>
+        <v>1.722419896157173</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.988541619102867</v>
@@ -17617,7 +17617,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.746254428713321</v>
+        <v>1.731379413292151</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.852948653554362</v>
@@ -17706,7 +17706,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.743784210591897</v>
+        <v>1.733922097345911</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.539390688184997</v>
@@ -17795,7 +17795,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.749678562860273</v>
+        <v>1.733248185402297</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.634770461804794</v>
@@ -17884,7 +17884,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.747261773825641</v>
+        <v>1.726660590670594</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>4.001971167552413</v>
@@ -17973,7 +17973,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.742176149392309</v>
+        <v>1.72441012142475</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.785717870931705</v>
@@ -18062,7 +18062,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.74188941576808</v>
+        <v>1.72645772404005</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.20794928288002</v>
@@ -18151,7 +18151,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.737204066817704</v>
+        <v>1.720532416559331</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.944474152200085</v>
@@ -18240,7 +18240,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.738065337056369</v>
+        <v>1.7197936056874</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>4.130704999287979</v>
@@ -18329,7 +18329,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.737706185256337</v>
+        <v>1.716278141699404</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.517858202296741</v>
@@ -18418,7 +18418,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.749743067720859</v>
+        <v>1.722982989482871</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.503221542883366</v>
@@ -18507,7 +18507,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.749281048778841</v>
+        <v>1.726088012067978</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4.223249104871681</v>
@@ -18596,7 +18596,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.751264650724282</v>
+        <v>1.729184990786682</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>4.114517703741631</v>
@@ -18685,7 +18685,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.73828611761907</v>
+        <v>1.724951066228906</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.562750291285582</v>
@@ -18774,7 +18774,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.735298765880963</v>
+        <v>1.721612615039988</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.783569290544666</v>
@@ -18863,7 +18863,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.746782446463659</v>
+        <v>1.736230520786251</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>4.169627784676976</v>
@@ -18952,7 +18952,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.74515771997632</v>
+        <v>1.732048997277054</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.931741689120089</v>
@@ -19041,7 +19041,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.683354872585988</v>
+        <v>1.681033919263092</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.568081994668554</v>
@@ -19130,7 +19130,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.676870281792717</v>
+        <v>1.681070404006141</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.645836836010308</v>
@@ -19219,7 +19219,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.679584017386542</v>
+        <v>1.678797508752436</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.571704648537196</v>
@@ -19308,7 +19308,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.683609336372732</v>
+        <v>1.682689292026339</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.497969718861416</v>
@@ -19397,7 +19397,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.674570229862534</v>
+        <v>1.678813755790242</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.63972678860673</v>
@@ -19486,7 +19486,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.671243758246261</v>
+        <v>1.672403747520333</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.601570862107369</v>
@@ -19575,7 +19575,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.674286618819795</v>
+        <v>1.673690612444628</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.659992574231002</v>
@@ -19664,7 +19664,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.67311059780143</v>
+        <v>1.673555031694927</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.623091268860275</v>
@@ -19753,7 +19753,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.672677221289795</v>
+        <v>1.674964518685459</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.527489301665721</v>
@@ -19842,7 +19842,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.672065394262621</v>
+        <v>1.671506193154679</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.674808630963711</v>
@@ -19931,7 +19931,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.676601911965598</v>
+        <v>1.669452690981989</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.018212134029851</v>
@@ -20217,7 +20217,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.45896703236163</v>
+        <v>1.455419761847942</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.497761312244398</v>
@@ -20306,7 +20306,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.477600314448712</v>
+        <v>1.468800998056851</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.299059449420117</v>
@@ -20395,7 +20395,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.496549725010447</v>
+        <v>1.480665735041204</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.38431331323163</v>
@@ -20484,7 +20484,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.51467824453145</v>
+        <v>1.494317548271735</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.508605468719279</v>
@@ -20573,7 +20573,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.500144923563502</v>
+        <v>1.484077348237339</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.281961268570199</v>
@@ -20662,7 +20662,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.487003438753441</v>
+        <v>1.477031247724485</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.494588230054585</v>
@@ -20751,7 +20751,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.48672982386644</v>
+        <v>1.476682943086937</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.508658617108954</v>
@@ -20840,7 +20840,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.466882653323609</v>
+        <v>1.458206344875205</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.566727342179414</v>
@@ -20929,7 +20929,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.467396088898205</v>
+        <v>1.4558026773029</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.539890352267708</v>
@@ -21018,7 +21018,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.451834515018093</v>
+        <v>1.439321160523125</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.36674891784682</v>
@@ -21107,7 +21107,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.457516923023669</v>
+        <v>1.439922511333096</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.587467670765465</v>
@@ -21196,7 +21196,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.446776927669547</v>
+        <v>1.438903751886212</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.54642562945084</v>
@@ -21285,7 +21285,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.469079854389024</v>
+        <v>1.461548205437866</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.326643567377639</v>
@@ -21374,7 +21374,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.486114693969323</v>
+        <v>1.475466164839876</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.25479859550981</v>
@@ -21463,7 +21463,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.488363594166811</v>
+        <v>1.480106308134556</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.580765381285195</v>
@@ -21552,7 +21552,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.478295697636224</v>
+        <v>1.471674665588487</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.372890684851087</v>
@@ -21641,7 +21641,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.480239323508094</v>
+        <v>1.474910253651262</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.278194189474122</v>
@@ -21730,7 +21730,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.503055541006185</v>
+        <v>1.497982124718084</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.236443807792468</v>
@@ -21819,7 +21819,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.514450966899905</v>
+        <v>1.509875125062566</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.344185396305089</v>
@@ -21908,7 +21908,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.535233153758656</v>
+        <v>1.532715958636413</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.281057330486082</v>
@@ -21997,7 +21997,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.566333771935651</v>
+        <v>1.561900238089135</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.430918061146671</v>
@@ -22086,7 +22086,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.548710092366202</v>
+        <v>1.547246608407592</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.235028418795027</v>
@@ -22175,7 +22175,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.56857001810157</v>
+        <v>1.565992555998176</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.331265635606495</v>
@@ -22264,7 +22264,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.584236363063961</v>
+        <v>1.578443247107988</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.284178811920532</v>
@@ -22353,7 +22353,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.598399565895412</v>
+        <v>1.592788652328425</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.293052145310596</v>
@@ -22442,7 +22442,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.580153733191072</v>
+        <v>1.576642970019821</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.12574950070767</v>
@@ -22531,7 +22531,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.569665689375761</v>
+        <v>1.556236194604669</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.397111123588455</v>
@@ -22620,7 +22620,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.498124852701832</v>
+        <v>1.496336233138665</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.453746053092102</v>
@@ -22709,7 +22709,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.476492921592898</v>
+        <v>1.481064208776639</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.416052398784308</v>
@@ -22798,7 +22798,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.485087038165722</v>
+        <v>1.49059639568103</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.427428120357339</v>
@@ -22887,7 +22887,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.514033118439782</v>
+        <v>1.520333906648596</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.532631593377779</v>
@@ -22976,7 +22976,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.470690740713357</v>
+        <v>1.480423482641341</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.481940738883257</v>
@@ -23065,7 +23065,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.460390067994005</v>
+        <v>1.474530487257732</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.537182815508135</v>
@@ -23154,7 +23154,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.454873415747763</v>
+        <v>1.466568854056721</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.450908327491715</v>
@@ -23243,7 +23243,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.44931384992471</v>
+        <v>1.461156678941745</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.495332925353261</v>
@@ -23332,7 +23332,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.429379277713011</v>
+        <v>1.438278174003249</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.466817126933047</v>
@@ -23421,7 +23421,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.427737143123698</v>
+        <v>1.436924248356901</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.365207525587431</v>
@@ -23510,7 +23510,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.420667738257714</v>
+        <v>1.430121714305498</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.385507049358495</v>
@@ -23599,7 +23599,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.410242747480899</v>
+        <v>1.422722535981633</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.512119207480556</v>
@@ -23688,7 +23688,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.416447487309433</v>
+        <v>1.42460399453065</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.301530231776246</v>
@@ -23777,7 +23777,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.404369304553598</v>
+        <v>1.413105647808188</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.08763769661962</v>
@@ -23866,7 +23866,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.368184954547663</v>
+        <v>1.387067974008768</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.826888346032053</v>
@@ -24152,7 +24152,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.518483480131258</v>
+        <v>1.522498085032388</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.352273720954369</v>
@@ -24241,7 +24241,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.539109721646613</v>
+        <v>1.542523174233008</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.20155481650405</v>
@@ -24330,7 +24330,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.571551083159475</v>
+        <v>1.568338779446879</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.29036442178238</v>
@@ -24419,7 +24419,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.600662302655998</v>
+        <v>1.580948318425776</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.387889611041662</v>
@@ -24508,7 +24508,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.590958652419564</v>
+        <v>1.577209369894453</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.572864819458578</v>
@@ -24597,7 +24597,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.600576651817209</v>
+        <v>1.585534750123967</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.40780417332582</v>
@@ -24686,7 +24686,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.608155416352543</v>
+        <v>1.595722556481145</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.444010720386387</v>
@@ -24775,7 +24775,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.568333205572794</v>
+        <v>1.563189344499458</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.46882536504486</v>
@@ -24864,7 +24864,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.564795152316654</v>
+        <v>1.558977463578202</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.43380376503538</v>
@@ -24953,7 +24953,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.55717048704687</v>
+        <v>1.555926912136361</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.355239149586185</v>
@@ -25042,7 +25042,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.555778839198288</v>
+        <v>1.550871609693191</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.535388263304067</v>
@@ -25131,7 +25131,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.557421352702306</v>
+        <v>1.553348546707633</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.438699308314454</v>
@@ -25220,7 +25220,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.570511408241282</v>
+        <v>1.567483439428571</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.440241160975793</v>
@@ -25309,7 +25309,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.566672625439835</v>
+        <v>1.556967250137341</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.233711076154615</v>
@@ -25398,7 +25398,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.577106253491393</v>
+        <v>1.567935690520164</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.38883371441787</v>
@@ -25487,7 +25487,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.568917203674512</v>
+        <v>1.56250162276224</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.462891830652467</v>
@@ -25576,7 +25576,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.574438486703227</v>
+        <v>1.56654240040946</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.417656527878912</v>
@@ -25665,7 +25665,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.591473311699324</v>
+        <v>1.578272259805992</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.41028499647247</v>
@@ -25754,7 +25754,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.597174048125506</v>
+        <v>1.589592798180452</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.459753013394638</v>
@@ -25843,7 +25843,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.602223628258966</v>
+        <v>1.592798349479122</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.402167408409851</v>
@@ -25932,7 +25932,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.605686858087842</v>
+        <v>1.594410756478371</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.408443089720222</v>
@@ -26021,7 +26021,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.601239952817838</v>
+        <v>1.589685042784247</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.365820868251119</v>
@@ -26110,7 +26110,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.630590481373597</v>
+        <v>1.614342929237967</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.484605751521201</v>
@@ -26199,7 +26199,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.633855251239112</v>
+        <v>1.616229142539534</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.379386082346264</v>
@@ -26288,7 +26288,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.637916747214595</v>
+        <v>1.612427080764196</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.431643842712398</v>
@@ -26377,7 +26377,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.599157286221864</v>
+        <v>1.585877507544102</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.477180881897474</v>
@@ -26466,7 +26466,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.580858955604509</v>
+        <v>1.561016491249245</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.437632483105054</v>
@@ -26555,7 +26555,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.496522644615008</v>
+        <v>1.488080482769012</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.419272186636467</v>
@@ -26644,7 +26644,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.484287742290029</v>
+        <v>1.479271285419755</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.45433741101999</v>
@@ -26733,7 +26733,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.494957347483482</v>
+        <v>1.49032929842869</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.437078616324435</v>
@@ -26822,7 +26822,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.518249011578193</v>
+        <v>1.514661002264127</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.367679012220556</v>
@@ -26911,7 +26911,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.465530935503458</v>
+        <v>1.464656384062615</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.20203242493892</v>
@@ -27000,7 +27000,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.458274253845275</v>
+        <v>1.461682387060996</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.250658034685384</v>
@@ -27089,7 +27089,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.453409678024561</v>
+        <v>1.455313241158253</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.216695106174025</v>
@@ -27178,7 +27178,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.448020389793661</v>
+        <v>1.450823842679541</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.230596861744148</v>
@@ -27267,7 +27267,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.431779026838969</v>
+        <v>1.434923161239336</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.226126879248303</v>
@@ -27356,7 +27356,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.431283151499406</v>
+        <v>1.435799279840558</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.198325388537406</v>
@@ -27445,7 +27445,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.423814894108613</v>
+        <v>1.42930783311312</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.205285561266221</v>
@@ -27534,7 +27534,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.42629730954845</v>
+        <v>1.431280020109894</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.284344288410093</v>
@@ -27623,7 +27623,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.435585308687157</v>
+        <v>1.439112045100457</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.111763727498743</v>
@@ -27712,7 +27712,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.446926364234034</v>
+        <v>1.448482790151463</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.282754971381701</v>
@@ -27801,7 +27801,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.453843785105674</v>
+        <v>1.460699216617175</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.149524986410265</v>
